--- a/loaded_influencer_data/caayy.b/caayy.b_video.xlsx
+++ b/loaded_influencer_data/caayy.b/caayy.b_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7481051989313326378</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2455</v>
+        <v>2463</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.425661914460285</v>
+        <v>1.583434835566382</v>
       </c>
       <c r="I2" t="n">
-        <v>1.221995926680244</v>
+        <v>1.299228583028827</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2036659877800407</v>
+        <v>0.2842062525375558</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04073319755600815</v>
+        <v>0.04060089321965083</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,349 +558,349 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7477202977334283563</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sugar cookie 🍪💖 @rhode skin #rhode #lipgloss #unboxing #beauty #girlythings #fyp</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6.140350877192982</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.847953216374268</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2923976608187134</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.461988304093567</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@caayy.b/video/7481328484032285995</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>439</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>💎Diamond Glow💎 my fav. #diamondglow #facial #deadskin #exfoliation #esthetician #skincare #beauty #fyp</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5.694760820045558</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.239179954441914</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4555808656036446</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@caayy.b/video/7485046447033929003</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Idk if this is new or not but I love it #redken #airwrap #curls #hairtok #blowout #girlythings</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10.66098081023454</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.675906183368871</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.985074626865671</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6396588486140725</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@caayy.b/video/7483608032568495403</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>460</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>#lipfiller #esthetician #girlythings #girltok 💋</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9.130434782608695</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.130434782608695</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@caayy.b/video/7483543864612015402</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>408</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sugar cookie 🍪💖 @rhode skin #rhode #lipgloss #unboxing #beauty #girlythings #fyp</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10.35502958579882</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.875739644970414</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.479289940828402</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2958579881656805</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@caayy.b/video/7481328484032285995</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>437</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>I cant even tell you how many of these iv gone through 🫶🏼 @skinbetter science #spf #makeup #esthetician</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.1441647597254</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@caayy.b/video/7485046447033929003</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>433</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OBSESSED ✨ #medspa #esthetician #wallart #girlythings #diy #fyp #disco #goodvibesonly #illinois</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.53921568627451</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.96078431372549</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2450980392156863</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@caayy.b/video/7483298438621302059</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>457</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mini day in my life 💉💜 #minivlog #lipfiller #medspa #esthetician #wallart #girlythings</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9.190371991247265</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.315098468271334</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.87527352297593</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2188183807439825</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@caayy.b/video/7483230547985075502</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>519</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>💎Diamond Glow💎 my fav. #diamondglow #facial #deadskin #exfoliation #esthetician #skincare #beauty #fyp</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5.773672055427252</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.311778290993072</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4618937644341801</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@caayy.b/video/7483608032568495403</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>441</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Idk if this is new or not but I love it #redken #airwrap #curls #hairtok #blowout #girlythings</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9.297052154195011</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.349206349206349</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.947845804988662</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.453514739229025</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@caayy.b/video/7483543864612015402</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>386</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>#lipfiller #esthetician #girlythings #girltok 💋</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9.844559585492227</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.844559585492227</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@caayy.b/video/7483298438621302059</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>445</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>OBSESSED ✨ #medspa #esthetician #wallart #girlythings #diy #fyp #disco #goodvibesonly #illinois</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10.56179775280899</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8.764044943820224</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.797752808988764</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@caayy.b/video/7483230547985075502</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>480</v>
-      </c>
-      <c r="C9" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mini day in my life 💉💜 #minivlog #lipfiller #medspa #esthetician #wallart #girlythings</t>
+          <t>Im so obsessed with all of them. #diy #walldesign #medspa #treatmentroom #esthetician #fyp #neon #disco #flowers</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8.125</v>
+        <v>11.36801541425819</v>
       </c>
       <c r="I9" t="n">
-        <v>7.291666666666667</v>
+        <v>10.21194605009634</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.15606936416185</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.3853564547206166</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -912,57 +912,57 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7482786715560627498</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C10" t="n">
         <v>51</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Im so obsessed with all of them. #diy #walldesign #medspa #treatmentroom #esthetician #fyp #neon #disco #flowers</t>
+          <t>I get my steps in for the day just setting up my room 🍀. #treatmentroom #esthetician #fyp #medspa #laser #monday</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11.56186612576065</v>
+        <v>11.2</v>
       </c>
       <c r="I10" t="n">
-        <v>10.3448275862069</v>
+        <v>10.2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.217038539553752</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4056795131845842</v>
+        <v>0.2</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-17</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7482473251311045934</t>
         </is>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7481758610566008107</t>
         </is>
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7481652655681539374</t>
         </is>
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7481404286526590251</t>
         </is>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7480951356228996398</t>
         </is>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7480616851068685610</t>
         </is>
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7480546821614406954</t>
         </is>
@@ -1312,7 +1312,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7480298324348718378</t>
         </is>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7480257312465095982</t>
         </is>
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7478865463070674222</t>
         </is>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7478496921993235754</t>
         </is>
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7478477725640985902</t>
         </is>
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7478330918558551338</t>
         </is>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7478076848589638955</t>
         </is>
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7477996524148886827</t>
         </is>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7477649449020312875</t>
         </is>
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7477628915599674667</t>
         </is>
@@ -1812,7 +1812,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7477267482126880043</t>
         </is>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7476899248722808110</t>
         </is>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7476850442979249450</t>
         </is>
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7476620097772145966</t>
         </is>
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7476461653031128366</t>
         </is>
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7476161387916447018</t>
         </is>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7476117537319734574</t>
         </is>
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475927571306335534</t>
         </is>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475818369913081130</t>
         </is>
@@ -2262,7 +2262,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475788157120744747</t>
         </is>
@@ -2312,7 +2312,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475736284938571054</t>
         </is>
@@ -2362,7 +2362,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475499425603849515</t>
         </is>
@@ -2412,7 +2412,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475343082087664938</t>
         </is>
@@ -2462,7 +2462,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475166226030038318</t>
         </is>
@@ -2512,7 +2512,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7475142456384736555</t>
         </is>
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474969048565189934</t>
         </is>
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474741250059488554</t>
         </is>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474636465587375406</t>
         </is>
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474461345153289514</t>
         </is>
@@ -2762,7 +2762,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474386848933268782</t>
         </is>
@@ -2812,7 +2812,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474287362600652075</t>
         </is>
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474246747020152106</t>
         </is>
@@ -2912,7 +2912,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@caayy.b/video/7474064545259179310</t>
         </is>
